--- a/관련 폴더/항목별 진행률.xlsx
+++ b/관련 폴더/항목별 진행률.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gram17\Desktop\채원\stockWebProgramming2\관련 폴더\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1506B54B-1FF1-4929-AD96-C4C386EAFD6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2075A9-2878-47C6-829A-2F669CC346DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="910" windowWidth="15080" windowHeight="15120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
